--- a/output2.xlsx
+++ b/output2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -767,10 +767,48 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>d11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>d12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>d13</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>d14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>d15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>file4.xlsx</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +478,11 @@
           <t>g1</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>h1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -499,10 +508,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>44561.93443287037</v>
       </c>
     </row>
     <row r="3">
@@ -534,22 +546,25 @@
       <c r="H3" t="n">
         <v>8</v>
       </c>
+      <c r="I3" s="2" t="n">
+        <v>44562.93443287037</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>a21</t>
+          <t>a11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>a22</t>
+          <t>a12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>a25</t>
+          <t>a15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -559,99 +574,100 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>44561.93443287037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>b11</t>
+          <t>a11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>b12</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>b13</t>
-        </is>
-      </c>
+          <t>a12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>b14</t>
+          <t>a15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>file2.xlsx</t>
+          <t>file1.xlsx</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>44562.93443287037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>b21</t>
+          <t>a21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>b22</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>b23</t>
-        </is>
-      </c>
+          <t>a22</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>b24</t>
+          <t>a25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>file2.xlsx</t>
+          <t>file1.xlsx</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>44561.93443287037</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>b16</t>
+          <t>b11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>b17</t>
+          <t>b12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>b18</t>
+          <t>b13</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>b19</t>
+          <t>b14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -661,31 +677,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>44561.93443287037</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>b26</t>
+          <t>b21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>b27</t>
+          <t>b22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>b28</t>
+          <t>b23</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>b29</t>
+          <t>b24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -694,121 +713,287 @@
           <t>file2.xlsx</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>13</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>44562.93443287037</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>c11</t>
+          <t>b16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>c12</t>
+          <t>b17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>c13</t>
+          <t>b18</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>c14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>c15</t>
-        </is>
-      </c>
+          <t>b19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>file3.xlsx</t>
+          <t>file2.xlsx</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H9" t="n">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>44563.93443287037</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>c11</t>
+          <t>b26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>c22</t>
+          <t>b27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>c23</t>
+          <t>b28</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>c24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>c25</t>
-        </is>
-      </c>
+          <t>b29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>file3.xlsx</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>22</v>
-      </c>
-      <c r="H10" t="n">
-        <v>23</v>
-      </c>
+          <t>file2.xlsx</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>c11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>c12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>c13</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>c14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>c15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>file3.xlsx</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>19</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>44561.93443287037</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>c11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>c12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>c13</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>c14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>c15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>file3.xlsx</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>22</v>
+      </c>
+      <c r="H12" t="n">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>44562.93443287037</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>c11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>c22</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>c23</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>c24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>c25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>file3.xlsx</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>19</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>44561.93443287037</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>c11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>c22</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>c23</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>c24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>c25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>file3.xlsx</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>22</v>
+      </c>
+      <c r="H14" t="n">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>44562.93443287037</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>d11</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>d12</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>d13</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>d14</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>d15</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>file4.xlsx</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G15" t="n">
         <v>25</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H15" t="n">
         <v>26</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>44563.93443287037</v>
       </c>
     </row>
   </sheetData>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,11 @@
           <t>h1</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -507,13 +512,18 @@
           <t>file1.xlsx</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>a11</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>44561.93443287037</v>
       </c>
     </row>
@@ -540,13 +550,18 @@
           <t>file1.xlsx</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="J3" s="2" t="n">
         <v>44562.93443287037</v>
       </c>
     </row>
@@ -573,13 +588,18 @@
           <t>file1.xlsx</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>a11</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="J4" s="2" t="n">
         <v>44561.93443287037</v>
       </c>
     </row>
@@ -606,13 +626,18 @@
           <t>file1.xlsx</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>8</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="J5" s="2" t="n">
         <v>44562.93443287037</v>
       </c>
     </row>
@@ -639,13 +664,18 @@
           <t>file1.xlsx</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>a21</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="J6" s="2" t="n">
         <v>44561.93443287037</v>
       </c>
     </row>
@@ -676,13 +706,18 @@
           <t>file2.xlsx</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>b11</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>11</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="J7" s="2" t="n">
         <v>44561.93443287037</v>
       </c>
     </row>
@@ -713,13 +748,18 @@
           <t>file2.xlsx</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>b21</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>13</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>14</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="J8" s="2" t="n">
         <v>44562.93443287037</v>
       </c>
     </row>
@@ -750,13 +790,18 @@
           <t>file2.xlsx</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>b16</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>16</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>17</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="J9" s="2" t="n">
         <v>44563.93443287037</v>
       </c>
     </row>
@@ -790,6 +835,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -822,13 +868,18 @@
           <t>file3.xlsx</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>c11</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>19</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>20</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="J11" s="2" t="n">
         <v>44561.93443287037</v>
       </c>
     </row>
@@ -863,13 +914,18 @@
           <t>file3.xlsx</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>c11</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>22</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>23</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="J12" s="2" t="n">
         <v>44562.93443287037</v>
       </c>
     </row>
@@ -904,13 +960,18 @@
           <t>file3.xlsx</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>c11</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>19</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>20</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="J13" s="2" t="n">
         <v>44561.93443287037</v>
       </c>
     </row>
@@ -945,13 +1006,18 @@
           <t>file3.xlsx</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>c11</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>22</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>23</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="J14" s="2" t="n">
         <v>44562.93443287037</v>
       </c>
     </row>
@@ -986,13 +1052,18 @@
           <t>file4.xlsx</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>d11</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>25</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>26</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="J15" s="2" t="n">
         <v>44563.93443287037</v>
       </c>
     </row>
